--- a/backend/data/ELT_JP_WOEID.xlsx
+++ b/backend/data/ELT_JP_WOEID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\github_repo\UAT_twitter_data_retrieval\app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\github_repo\UAT_web_app_02_dashboard_NowHit\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8B6E2-B669-41BD-83F9-7C6CDE827D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A27ED4-87B9-458D-B67F-D2F331375EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prefecture_to_WOEID_JP_short" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>WOEID</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>北九州</t>
-  </si>
-  <si>
-    <t>埼玉</t>
-  </si>
-  <si>
-    <t>千葉</t>
-  </si>
-  <si>
     <t>福岡</t>
   </si>
   <si>
@@ -46,21 +37,9 @@
     <t>広島</t>
   </si>
   <si>
-    <t>川崎</t>
-  </si>
-  <si>
     <t>神戸</t>
   </si>
   <si>
-    <t>熊本</t>
-  </si>
-  <si>
-    <t>新潟</t>
-  </si>
-  <si>
-    <t>相模原</t>
-  </si>
-  <si>
     <t>札幌</t>
   </si>
   <si>
@@ -82,16 +61,10 @@
     <t>京都</t>
   </si>
   <si>
-    <t>岡山</t>
-  </si>
-  <si>
     <t>日本</t>
   </si>
   <si>
     <t>名古屋</t>
-  </si>
-  <si>
-    <t>横浜</t>
   </si>
 </sst>
 </file>
@@ -932,15 +905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -953,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1110809</v>
+        <v>1117099</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -961,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1116753</v>
+        <v>1117155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1117034</v>
+        <v>1117227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,55 +950,55 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1117099</v>
+        <v>1117545</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>1117155</v>
+        <v>1117817</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1117227</v>
+        <v>1118108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1117502</v>
+        <v>1118129</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1117545</v>
+        <v>1118285</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1117605</v>
+        <v>1118370</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1117817</v>
+        <v>2345896</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1117881</v>
+        <v>15015370</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1118072</v>
+        <v>15015372</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,78 +1022,6 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1118108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1118129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1118285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1118370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>1118550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2345896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>15015370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>15015372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>90036018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
         <v>23424856</v>
       </c>
     </row>

--- a/backend/data/ELT_JP_WOEID.xlsx
+++ b/backend/data/ELT_JP_WOEID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\github_repo\UAT_web_app_02_dashboard_NowHit\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A27ED4-87B9-458D-B67F-D2F331375EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895B1F6-5CF2-4708-BEE5-EC530A5809E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prefecture_to_WOEID_JP_short" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/backend/data/ELT_JP_WOEID.xlsx
+++ b/backend/data/ELT_JP_WOEID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\github_repo\UAT_web_app_02_dashboard_NowHit\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895B1F6-5CF2-4708-BEE5-EC530A5809E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F025D-3DBA-4CCE-A062-B8DDE63AFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prefecture_to_WOEID_JP_short" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,98 +923,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1117099</v>
+        <v>2345896</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>1117155</v>
+        <v>1118370</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1117227</v>
+        <v>1117099</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1117545</v>
+        <v>1117227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1117817</v>
+        <v>1117545</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>1118108</v>
+        <v>15015372</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1118129</v>
+        <v>15015370</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1118285</v>
+        <v>1117817</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1118370</v>
+        <v>1118285</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>2345896</v>
+        <v>1117155</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>15015370</v>
+        <v>1118129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>15015372</v>
+        <v>1118108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,5 +1027,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>